--- a/biology/Botanique/Avena_brevis/Avena_brevis.xlsx
+++ b/biology/Botanique/Avena_brevis/Avena_brevis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Avena brevis, l'avoine courte, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire du Sud-Ouest de l'Europe.
 Ce sont des plantes herbacées annuelles, aux tiges dressées ou géniculées ascendantes, pouvant atteindre 70 cm de long, et aux inflorescences en panicules.
@@ -513,9 +525,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle d'Avena brevis s'étend dans le Sud-Ouest de l'Europe (France, Espagne, Portugal) et dans les île de Macaronésie (Açores, Madère)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle d'Avena brevis s'étend dans le Sud-Ouest de l'Europe (France, Espagne, Portugal) et dans les île de Macaronésie (Açores, Madère).
 </t>
         </is>
       </c>
@@ -546,15 +560,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (23 décembre 2017)[3] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (23 décembre 2017) :
 Avena mandoniana Coss. &amp; Balansa, nom. nud.
 Avena sativa var. brevis (Roth) Fiori
 Avena strigosa subsp. brevis (Roth) Hayek
 Avena strigosa subsp. mandoniana Tab.Morais
-Avena uniflora Parl.
-Liste des variétés
-Selon Tropicos                                           (23 décembre 2017)[4] :
+Avena uniflora Parl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Avena_brevis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Avena_brevis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (23 décembre 2017) :
 variété Avena brevis var. uniflora Drouet</t>
         </is>
       </c>
